--- a/E.S/Planejamento (planilha).xlsx
+++ b/E.S/Planejamento (planilha).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbati\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbati\projeto_final\E.S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE624223-5FFA-40DC-9AE2-1D3D83E9B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C7CDE-A16C-4CAC-8164-9CB81CDDEE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B88FC13-60C4-4327-A49E-1739FE8BB750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -63,18 +63,9 @@
     <t>Feed</t>
   </si>
   <si>
-    <t>Avaliação</t>
-  </si>
-  <si>
-    <t>Reputação</t>
-  </si>
-  <si>
     <t>Denúncia</t>
   </si>
   <si>
-    <t>Mensagens</t>
-  </si>
-  <si>
     <t>Product Backlog - Planejamento</t>
   </si>
   <si>
@@ -93,21 +84,12 @@
     <t>15/11 - 17/11</t>
   </si>
   <si>
-    <t>18/11 - 20/11</t>
-  </si>
-  <si>
-    <t>21/11 - 23/11</t>
-  </si>
-  <si>
     <t>05h</t>
   </si>
   <si>
     <t>10/11 - 12/11</t>
   </si>
   <si>
-    <t>23/11 - 25/11</t>
-  </si>
-  <si>
     <t>Etapa 1 - Estórias de Usuário</t>
   </si>
   <si>
@@ -118,6 +100,15 @@
   </si>
   <si>
     <t>Etapa 2 - Criar Layout</t>
+  </si>
+  <si>
+    <t>20/11 - 23/11</t>
+  </si>
+  <si>
+    <t>24/11 - 26/11</t>
+  </si>
+  <si>
+    <t>27/11 - 29/11</t>
   </si>
 </sst>
 </file>
@@ -186,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -218,13 +209,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,28 +267,64 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +646,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,34 +665,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -644,19 +708,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -666,26 +730,26 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" s="9">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -695,13 +759,13 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -710,15 +774,15 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -727,13 +791,13 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -742,26 +806,26 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="23">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>23</v>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -771,13 +835,13 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -786,15 +850,27 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -803,13 +879,13 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -818,102 +894,42 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9">
-        <v>6</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
+  <mergeCells count="26">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
